--- a/Horas practica (version 1).xlsb.xlsx
+++ b/Horas practica (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Desktop\Practica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7E756E-05EC-408A-8167-F9F0F003A8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8C8D35-34FF-452E-A78E-1A2F2514E6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:D6"/>
+  <dimension ref="C2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,6 +397,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>45526</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas practica (version 1).xlsb.xlsx
+++ b/Horas practica (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Desktop\Practica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8C8D35-34FF-452E-A78E-1A2F2514E6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FECBB1F-DAAC-4CC0-978C-9DD0CC7DEBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:D7"/>
+  <dimension ref="C2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -405,6 +405,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>45527</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas practica (version 1).xlsb.xlsx
+++ b/Horas practica (version 1).xlsb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Desktop\Practica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FECBB1F-DAAC-4CC0-978C-9DD0CC7DEBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A385AD75-0AA1-478F-AC32-B1464FBFAB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:D8"/>
+  <dimension ref="C2:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,6 +413,38 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <v>45530</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>45531</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>45532</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>45533</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
